--- a/Unity/Assets/Config/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Unity/Assets/Config/Excel/PlayerNumericConfig@cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Unity\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Unity\ET7-EUI\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183CBF12-4866-4523-A86E-6EA0E6583067}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094C3BD-B171-4359-B7AD-99DA37B9B216}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="28680" yWindow="-156" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-156" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerNumericConfig" sheetId="1" r:id="rId1"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F9" s="8">
         <v>1</v>
@@ -745,7 +745,8 @@
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>200</v>
+        <f>E9</f>
+        <v>100</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -785,6 +786,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="1">
+        <f>E11</f>
         <v>100</v>
       </c>
       <c r="F12" s="8">
@@ -805,7 +807,7 @@
         <v>6</v>
       </c>
       <c r="E13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F13" s="8">
         <v>1</v>
@@ -825,7 +827,7 @@
         <v>31</v>
       </c>
       <c r="E14" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F14" s="8">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Unity/Assets/Config/Excel/PlayerNumericConfig@cs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Unity\ET7-EUI\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2094C3BD-B171-4359-B7AD-99DA37B9B216}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77209754-832A-4090-AF32-B1A3EE027C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-156" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -685,7 +685,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7" s="8">
         <v>1</v>

--- a/Unity/Assets/Config/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Unity/Assets/Config/Excel/PlayerNumericConfig@cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Unity\ET7-EUI\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77209754-832A-4090-AF32-B1A3EE027C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D66B62-F501-4D98-A41E-DC83B392CFF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-156" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>力量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -114,10 +110,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BaseValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>最大生命值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -163,10 +155,6 @@
   </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始基础值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -198,6 +186,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -205,6 +194,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -578,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -589,50 +579,43 @@
     <col min="1" max="2" width="21.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="14.21875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
+    <col min="6" max="7" width="14.21875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
@@ -640,19 +623,16 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -660,93 +640,80 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1011</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="1">
-        <v>100</v>
+      <c r="E7" s="8">
+        <v>1</v>
       </c>
       <c r="F7" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>1012</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
+      <c r="E8" s="8">
+        <v>1</v>
       </c>
       <c r="F8" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>1002</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
       </c>
       <c r="F9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
       </c>
-      <c r="H9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>1013</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="1">
-        <f>E9</f>
-        <v>100</v>
+      <c r="E10" s="8">
+        <v>0</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -754,40 +721,33 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>1004</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
+        <v>24</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
-      <c r="H11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>1014</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
-        <f>E11</f>
-        <v>100</v>
+      <c r="E12" s="8">
+        <v>0</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -795,206 +755,176 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>1015</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="1">
-        <v>5</v>
+      <c r="E13" s="8">
+        <v>1</v>
       </c>
       <c r="F13" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
       </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>1016</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
       </c>
       <c r="F14" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
-      <c r="H14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>1017</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5000</v>
+        <v>26</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
       </c>
       <c r="F15" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>1018</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
       </c>
       <c r="F16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>1019</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
       </c>
       <c r="F17" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>3001</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>11</v>
+      <c r="D19" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>3002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
-      <c r="H20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>3003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-      <c r="H21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>3004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
-      <c r="H22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="1">
         <v>3005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E23" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -1002,19 +932,16 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-      <c r="H23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>3006</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="1">
-        <v>5</v>
+      <c r="E24" s="8">
+        <v>0</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
@@ -1022,19 +949,16 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>3007</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -1042,16 +966,13 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-      <c r="H25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>3008</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -1062,16 +983,13 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-      <c r="H26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>3009</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1082,19 +1000,16 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-      <c r="H27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>3013</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1102,27 +1017,21 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-      <c r="H28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>3015</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E29" s="1">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
-        <v>0</v>
-      </c>
-      <c r="H29" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Unity/Assets/Config/Excel/PlayerNumericConfig@cs.xlsx
+++ b/Unity/Assets/Config/Excel/PlayerNumericConfig@cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12533\Desktop\Unity\ET7-EUI\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D66B62-F501-4D98-A41E-DC83B392CFF7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77209754-832A-4090-AF32-B1A3EE027C82}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-156" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Id</t>
   </si>
@@ -58,6 +58,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>long</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>力量</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -110,6 +114,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>BaseValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>最大生命值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -155,6 +163,10 @@
   </si>
   <si>
     <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始基础值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -186,7 +198,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -194,7 +205,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -568,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -579,60 +589,70 @@
     <col min="1" max="2" width="21.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.21875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="11.88671875" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.21875" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
@@ -640,80 +660,93 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1011</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="8">
-        <v>1</v>
+      <c r="E7" s="1">
+        <v>100</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>1012</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8">
-        <v>1</v>
+      <c r="E8" s="1">
+        <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>1002</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>100</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>1013</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="8">
-        <v>0</v>
+      <c r="E10" s="1">
+        <f>E9</f>
+        <v>100</v>
       </c>
       <c r="F10" s="8">
         <v>0</v>
@@ -721,33 +754,40 @@
       <c r="G10" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>1004</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="E11" s="1">
+        <v>100</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>1014</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="8">
-        <v>0</v>
+      <c r="E12" s="1">
+        <f>E11</f>
+        <v>100</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
@@ -755,176 +795,206 @@
       <c r="G12" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>1015</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="8">
-        <v>1</v>
+      <c r="E13" s="1">
+        <v>5</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>1016</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>1017</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="8">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5000</v>
       </c>
       <c r="F15" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>1018</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="8">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>1019</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
       </c>
       <c r="F17" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>3001</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>10</v>
+      <c r="D19" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>3002</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>3003</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>3004</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="4"/>
       <c r="C23" s="1">
         <v>3005</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F23" s="1">
         <v>0</v>
@@ -932,16 +1002,19 @@
       <c r="G23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>3006</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="8">
-        <v>0</v>
+      <c r="E24" s="1">
+        <v>5</v>
       </c>
       <c r="F24" s="8">
         <v>0</v>
@@ -949,16 +1022,19 @@
       <c r="G24" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>3007</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="1">
         <v>0</v>
@@ -966,13 +1042,16 @@
       <c r="G25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>3008</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1">
         <v>0</v>
@@ -983,13 +1062,16 @@
       <c r="G26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>3009</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1">
         <v>0</v>
@@ -1000,16 +1082,19 @@
       <c r="G27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>3013</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1">
         <v>0</v>
@@ -1017,21 +1102,27 @@
       <c r="G28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>3015</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
       </c>
       <c r="G29" s="1">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1">
         <v>0</v>
       </c>
     </row>
